--- a/CashFlow/NOW_cashflow.xlsx
+++ b/CashFlow/NOW_cashflow.xlsx
@@ -886,19 +886,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>34738000.0</v>
+        <v>280000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-33583000.0</v>
+        <v>245000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>101596000.0</v>
+        <v>310804000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>90733000.0</v>
+        <v>213409000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>122030000.0</v>
+        <v>175351000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>65097000.0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>173858000.0</v>
+        <v>173766000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>145766000.0</v>
@@ -3986,7 +3986,7 @@
         <v>135624000.0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>121683000.0</v>
+        <v>121775000.0</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>107868000.0</v>
